--- a/data/base.xlsx
+++ b/data/base.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="828" uniqueCount="432">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="828" uniqueCount="431">
   <si>
     <t>es6</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1660,10 +1660,6 @@
   </si>
   <si>
     <t>unevel()</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>obsolete</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -10979,7 +10975,7 @@
   <dimension ref="A2:I96"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -11054,7 +11050,7 @@
         <v>411</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="2"/>
@@ -11076,7 +11072,7 @@
         <v>412</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="2"/>
@@ -11098,7 +11094,7 @@
         <v>413</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
@@ -11117,10 +11113,10 @@
         <v>0</v>
       </c>
       <c r="C7" s="20" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D7" s="14" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="H7" s="10"/>
       <c r="I7" s="8" t="str">
@@ -11219,15 +11215,15 @@
         <v>418</v>
       </c>
       <c r="D12" s="11"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="2" t="s">
-        <v>426</v>
-      </c>
+      <c r="E12" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F12" s="2"/>
       <c r="G12" s="1"/>
       <c r="H12" s="10"/>
       <c r="I12" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>["1","escape()","","","obsolete","",""],</v>
+        <f>CONCATENATE("[""",B12,""",""",C12,""",""",D12,""",""",E12,""",""",F12,""",""",G12,""",""",H12,"""],")</f>
+        <v>["1","escape()","","obsolete","","",""],</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
@@ -11241,15 +11237,15 @@
         <v>419</v>
       </c>
       <c r="D13" s="11"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2" t="s">
-        <v>426</v>
-      </c>
+      <c r="E13" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F13" s="2"/>
       <c r="G13" s="1"/>
       <c r="H13" s="10"/>
       <c r="I13" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>["1","unescape()","","","obsolete","",""],</v>
+        <f>CONCATENATE("[""",B13,""",""",C13,""",""",D13,""",""",E13,""",""",F13,""",""",G13,""",""",H13,"""],")</f>
+        <v>["1","unescape()","","obsolete","","",""],</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
@@ -12575,6 +12571,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
